--- a/public/files/example/importar_excel_emizor.xlsx
+++ b/public/files/example/importar_excel_emizor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NIT DEL CLIENTE</t>
   </si>
@@ -22,10 +22,16 @@
     <t>CÓDIGO DE PRODUCTO/SERVICIO</t>
   </si>
   <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
     <t>NOTA PARA EL CLIENTE</t>
+  </si>
+  <si>
+    <t>ID CLIENTE</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ADICIONAL</t>
+  </si>
+  <si>
+    <t>COSTO</t>
   </si>
 </sst>
 </file>
@@ -43,7 +49,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,7 +57,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,21 +90,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -113,21 +104,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,35 +432,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/files/example/importar_excel_emizor.xlsx
+++ b/public/files/example/importar_excel_emizor.xlsx
@@ -31,17 +31,32 @@
     <t>DESCRIPCION ADICIONAL</t>
   </si>
   <si>
-    <t>COSTO</t>
+    <t>SUBTOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,9 +70,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,7 +90,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,17 +135,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,17 +450,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -461,7 +476,7 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
